--- a/Offline/TeacherRecruitment/FaceBookAdForTeacherRecruitments/FacultyContactDetails.xlsx
+++ b/Offline/TeacherRecruitment/FaceBookAdForTeacherRecruitments/FacultyContactDetails.xlsx
@@ -8,26 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\TeacherRecruitment\FaceBookAdForTeacherRecruitments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835F7B4-5145-4C28-8C47-CFD6DEA3DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B07BE-4E94-4607-A04E-AC7D30F7CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty Contact Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Faculty Required" sheetId="2" r:id="rId2"/>
-    <sheet name="Loreto-Email-Id" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Faculty Required" sheetId="2" r:id="rId3"/>
+    <sheet name="Loreto-Email-Id" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>SlNo</t>
   </si>
@@ -180,13 +190,91 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankita Mukherjee </t>
+  </si>
+  <si>
+    <t>Humanities</t>
+  </si>
+  <si>
+    <t>80173 89304</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Indrani Banerjee</t>
+  </si>
+  <si>
+    <t>84203 71183</t>
+  </si>
+  <si>
+    <t>MS Office</t>
+  </si>
+  <si>
+    <t>Advanced Excel (VBA)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>HTML, CSS, JavaScript</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Advanced Java</t>
+  </si>
+  <si>
+    <t>.Net (C#, VB.Net)</t>
+  </si>
+  <si>
+    <t>Advanced .Net</t>
+  </si>
+  <si>
+    <t>React, MUI</t>
+  </si>
+  <si>
+    <t>React Native</t>
+  </si>
+  <si>
+    <t>PHP, Wordpress</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Firebase</t>
+  </si>
+  <si>
+    <t>Tally</t>
+  </si>
+  <si>
+    <t>Prince2</t>
+  </si>
+  <si>
+    <t>Agile Scrum</t>
+  </si>
+  <si>
+    <t>She will come at 2nd August 2023 at 5 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,8 +307,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +326,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,12 +341,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,6 +381,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -549,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,6 +858,49 @@
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -747,10 +908,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85896B1-649E-444D-B0F4-B18948BE8050}">
+  <dimension ref="E2:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAD798-0DF0-4EE2-934F-0A48BED80FA1}">
   <dimension ref="C2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -856,7 +1130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E91BA0-385B-4F2E-9F21-1D4601101643}">
   <dimension ref="D2"/>
   <sheetViews>

--- a/Offline/TeacherRecruitment/FaceBookAdForTeacherRecruitments/FacultyContactDetails.xlsx
+++ b/Offline/TeacherRecruitment/FaceBookAdForTeacherRecruitments/FacultyContactDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\TeacherRecruitment\FaceBookAdForTeacherRecruitments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B07BE-4E94-4607-A04E-AC7D30F7CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56BD60-F2E8-4DBE-BE02-2499F7055E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>SlNo</t>
   </si>
@@ -268,6 +268,93 @@
   </si>
   <si>
     <t>She will come at 2nd August 2023 at 5 PM</t>
+  </si>
+  <si>
+    <t>Anamika-Sarkar</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Indrani-Bannerjee</t>
+  </si>
+  <si>
+    <t>8420371183, 6291283168</t>
+  </si>
+  <si>
+    <t>Microsoft Azure Cloud</t>
+  </si>
+  <si>
+    <t>Linux, Shell Script</t>
+  </si>
+  <si>
+    <t>Networking &amp; CCNA</t>
+  </si>
+  <si>
+    <t>Hands-on Network H/W</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>Docker &amp; Kubernetes</t>
+  </si>
+  <si>
+    <t>Cloud, AWS, GCP</t>
+  </si>
+  <si>
+    <t>Cyber security Basics</t>
+  </si>
+  <si>
+    <t>Cyber security Advanced</t>
+  </si>
+  <si>
+    <t>Test Automtn Selenium</t>
+  </si>
+  <si>
+    <t>Advanced Comme Pkg</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>Data Science &amp; AI</t>
+  </si>
+  <si>
+    <t>AI - DSP</t>
+  </si>
+  <si>
+    <t>AI - NLP</t>
+  </si>
+  <si>
+    <t>AI - Comp Vision (CNN)</t>
+  </si>
+  <si>
+    <t>IoT, Robotics</t>
+  </si>
+  <si>
+    <t>Advanced IoT, Robotics</t>
+  </si>
+  <si>
+    <t>Physcology</t>
+  </si>
+  <si>
+    <t>Debolina Sen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOD Arts </t>
+  </si>
+  <si>
+    <t>98365 81909</t>
+  </si>
+  <si>
+    <t>Anupam Sen</t>
+  </si>
+  <si>
+    <t>Selected</t>
   </si>
 </sst>
 </file>
@@ -313,7 +400,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +416,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,12 +478,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -667,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,8 +792,8 @@
     <col min="1" max="1" width="4.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="70.6640625" bestFit="1" customWidth="1"/>
@@ -724,7 +838,7 @@
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -750,7 +864,7 @@
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -776,7 +890,7 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>8680908558</v>
       </c>
       <c r="F5" t="s">
@@ -799,6 +913,7 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="15"/>
       <c r="F6" t="s">
         <v>20</v>
       </c>
@@ -819,7 +934,7 @@
       <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <v>8240897581</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -845,7 +960,7 @@
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -871,10 +986,10 @@
       <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -882,23 +997,82 @@
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="12">
         <v>45135</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="15">
+        <v>6294530655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18">
+        <v>45139</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -909,110 +1083,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85896B1-649E-444D-B0F4-B18948BE8050}">
-  <dimension ref="E2:E20"/>
+  <dimension ref="H2:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E2" s="13" t="s">
+    <row r="2" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H2" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E3" s="13" t="s">
+    <row r="3" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H3" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E4" s="13" t="s">
+    <row r="4" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E5" s="13" t="s">
+    <row r="5" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H5" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E6" s="13" t="s">
+    <row r="6" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H6" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E7" s="13" t="s">
+    <row r="7" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E8" s="13" t="s">
+    <row r="8" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H8" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="13" t="s">
+    <row r="9" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H9" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="13" t="s">
+    <row r="10" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H10" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="13" t="s">
+    <row r="11" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H11" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H12" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="13" t="s">
+    <row r="13" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E13" s="13" t="s">
+    <row r="14" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H14" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="13" t="s">
+    <row r="15" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H15" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H16" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H17" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H19" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H20" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H21" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H22" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H23" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="13" t="s">
+    <row r="25" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H25" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="13" t="s">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="13" t="s">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="13" t="s">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="13" t="s">
+    <row r="29" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H29" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="13" t="s">
+    <row r="31" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H31" s="11" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H33" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H34" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H37" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="H38" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="H39" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1035,12 +1304,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="8"/>
